--- a/sputnik/personal/ee/54ee.xlsx
+++ b/sputnik/personal/ee/54ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -469,10 +469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -622,7 +622,7 @@
         <v>10016.5</v>
       </c>
       <c r="H6" s="11">
-        <v>10116.5</v>
+        <v>10016.200000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -699,26 +699,77 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="10" t="s">
+      <c r="A10" s="7">
+        <v>43934</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>98850</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:D11" si="4">SUM(C10,-C8)</f>
+        <v>1750</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" ref="F10:F11" si="5">D10*E10</f>
+        <v>7857.5</v>
+      </c>
+      <c r="G10" s="11">
+        <f>SUM(F10,F11)</f>
+        <v>10166</v>
+      </c>
+      <c r="H10" s="11">
+        <v>10166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>59600</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="4"/>
+        <v>950</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="5"/>
+        <v>2308.5</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="11">
-        <f>SUM(G2:G9)</f>
-        <v>25866.9</v>
-      </c>
-      <c r="H10" s="11">
-        <f>SUM(H2:H9)</f>
-        <v>25966.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="10" t="s">
+      <c r="G12" s="11">
+        <f>SUM(G2:G11)</f>
+        <v>36032.9</v>
+      </c>
+      <c r="H12" s="11">
+        <f>SUM(H2:H11)</f>
+        <v>36032.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11">
-        <f>SUM(H10,-G10)</f>
-        <v>100</v>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11">
+        <f>SUM(H12,-G12)</f>
+        <v>-0.30000000000291038</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/54ee.xlsx
+++ b/sputnik/personal/ee/54ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -469,10 +469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -709,7 +709,7 @@
         <v>98850</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" ref="D10:D11" si="4">SUM(C10,-C8)</f>
+        <f t="shared" ref="D10:D12" si="4">SUM(C10,-C8)</f>
         <v>1750</v>
       </c>
       <c r="E10" s="6">
@@ -750,25 +750,76 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="10" t="s">
+      <c r="A12" s="7">
+        <v>43964</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>100100</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" ref="F12:F13" si="6">D12*E12</f>
+        <v>5612.5</v>
+      </c>
+      <c r="G12" s="11">
+        <f>SUM(F12,F13)</f>
+        <v>7483.6</v>
+      </c>
+      <c r="H12" s="11">
+        <v>7483.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>60370</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D12:D13" si="7">SUM(C13,-C11)</f>
+        <v>770</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="6"/>
+        <v>1871.1000000000001</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G14" s="11">
         <f>SUM(G2:G11)</f>
         <v>36032.9</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H14" s="11">
         <f>SUM(H2:H11)</f>
         <v>36032.6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="10" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11">
-        <f>SUM(H12,-G12)</f>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
+        <f>SUM(H14,-G14)</f>
         <v>-0.30000000000291038</v>
       </c>
     </row>

--- a/sputnik/personal/ee/54ee.xlsx
+++ b/sputnik/personal/ee/54ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -469,10 +469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -787,7 +787,7 @@
         <v>60370</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ref="D12:D13" si="7">SUM(C13,-C11)</f>
+        <f t="shared" ref="D13:D14" si="7">SUM(C13,-C11)</f>
         <v>770</v>
       </c>
       <c r="E13" s="2">
@@ -801,25 +801,76 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="10" t="s">
+      <c r="A14" s="7">
+        <v>43999</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>100840</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="7"/>
+        <v>740</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" ref="F14:F15" si="8">D14*E14</f>
+        <v>3322.6000000000004</v>
+      </c>
+      <c r="G14" s="11">
+        <f>SUM(F14,F15)</f>
+        <v>4756.3</v>
+      </c>
+      <c r="H14" s="11">
+        <v>4756.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>60960</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" ref="D15" si="9">SUM(C15,-C13)</f>
+        <v>590</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="8"/>
+        <v>1433.7</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="11">
-        <f>SUM(G2:G11)</f>
-        <v>36032.9</v>
-      </c>
-      <c r="H14" s="11">
-        <f>SUM(H2:H11)</f>
-        <v>36032.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="10" t="s">
+      <c r="G16" s="11">
+        <f>SUM(G2:G15)</f>
+        <v>48272.800000000003</v>
+      </c>
+      <c r="H16" s="11">
+        <f>SUM(H2:H15)</f>
+        <v>48272.5</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
-        <f>SUM(H14,-G14)</f>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11">
+        <f>SUM(H16,-G16)</f>
         <v>-0.30000000000291038</v>
       </c>
     </row>

--- a/sputnik/personal/ee/54ee.xlsx
+++ b/sputnik/personal/ee/54ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -133,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -162,6 +162,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -469,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D24" sqref="D23:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -597,7 +600,7 @@
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
         <v>43868</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -626,7 +629,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -648,7 +651,7 @@
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="8">
         <v>43901</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -677,7 +680,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
@@ -699,7 +702,7 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="8">
         <v>43934</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -728,7 +731,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
@@ -750,7 +753,7 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="8">
         <v>43964</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -779,7 +782,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
@@ -801,7 +804,7 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="8">
         <v>43999</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -838,7 +841,7 @@
         <v>60960</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" ref="D15" si="9">SUM(C15,-C13)</f>
+        <f t="shared" ref="D15:D16" si="9">SUM(C15,-C13)</f>
         <v>590</v>
       </c>
       <c r="E15" s="2">
@@ -852,25 +855,76 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="10" t="s">
+      <c r="A16" s="7">
+        <v>44018</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="12">
+        <v>101717</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="9"/>
+        <v>877</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" ref="F16:F17" si="10">D16*E16</f>
+        <v>3937.73</v>
+      </c>
+      <c r="G16" s="11">
+        <f>SUM(F16,F17)</f>
+        <v>5483.21</v>
+      </c>
+      <c r="H16" s="11">
+        <v>5483.21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12">
+        <v>61596</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" ref="D17" si="11">SUM(C17,-C15)</f>
+        <v>636</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="10"/>
+        <v>1545.48</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="11">
-        <f>SUM(G2:G15)</f>
-        <v>48272.800000000003</v>
-      </c>
-      <c r="H16" s="11">
-        <f>SUM(H2:H15)</f>
-        <v>48272.5</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="10" t="s">
+      <c r="G18" s="11">
+        <f>SUM(G2:G17)</f>
+        <v>53756.01</v>
+      </c>
+      <c r="H18" s="11">
+        <f>SUM(H2:H17)</f>
+        <v>53755.71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11">
-        <f>SUM(H16,-G16)</f>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11">
+        <f>SUM(H18,-G18)</f>
         <v>-0.30000000000291038</v>
       </c>
     </row>

--- a/sputnik/personal/ee/54ee.xlsx
+++ b/sputnik/personal/ee/54ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -472,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D23:D24"/>
+      <selection activeCell="A16" sqref="A16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -855,13 +855,13 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="8">
         <v>44018</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="9">
         <v>101717</v>
       </c>
       <c r="D16" s="2">
@@ -884,15 +884,15 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="9">
         <v>61596</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" ref="D17" si="11">SUM(C17,-C15)</f>
+        <f t="shared" ref="D17:D18" si="11">SUM(C17,-C15)</f>
         <v>636</v>
       </c>
       <c r="E17" s="2">
@@ -906,25 +906,76 @@
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="10" t="s">
+      <c r="A18" s="7">
+        <v>44049</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="12">
+        <v>101969</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="11"/>
+        <v>252</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" ref="F18:F19" si="12">D18*E18</f>
+        <v>1131.48</v>
+      </c>
+      <c r="G18" s="11">
+        <f>SUM(F18,F19)</f>
+        <v>1308.8700000000001</v>
+      </c>
+      <c r="H18" s="11">
+        <v>1308.8699999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12">
+        <v>61669</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19" si="13">SUM(C19,-C17)</f>
+        <v>73</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="12"/>
+        <v>177.39000000000001</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G20" s="11">
         <f>SUM(G2:G17)</f>
         <v>53756.01</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H20" s="11">
         <f>SUM(H2:H17)</f>
         <v>53755.71</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="10" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11">
-        <f>SUM(H18,-G18)</f>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11">
+        <f>SUM(H20,-G20)</f>
         <v>-0.30000000000291038</v>
       </c>
     </row>

--- a/sputnik/personal/ee/54ee.xlsx
+++ b/sputnik/personal/ee/54ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -133,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -163,6 +163,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -472,10 +475,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C17"/>
+      <selection activeCell="E18" sqref="E18:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -892,7 +895,7 @@
         <v>61596</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" ref="D17:D18" si="11">SUM(C17,-C15)</f>
+        <f t="shared" ref="D17" si="11">SUM(C17,-C15)</f>
         <v>636</v>
       </c>
       <c r="E17" s="2">
@@ -916,19 +919,19 @@
         <v>101969</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="11"/>
+        <f>SUM(C18,-C16)</f>
         <v>252</v>
       </c>
-      <c r="E18" s="6">
-        <v>4.49</v>
+      <c r="E18" s="13">
+        <v>4.71</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" ref="F18:F19" si="12">D18*E18</f>
-        <v>1131.48</v>
+        <v>1186.92</v>
       </c>
       <c r="G18" s="11">
         <f>SUM(F18,F19)</f>
-        <v>1308.8700000000001</v>
+        <v>1373.0700000000002</v>
       </c>
       <c r="H18" s="11">
         <v>1308.8699999999999</v>
@@ -946,37 +949,137 @@
         <f t="shared" ref="D19" si="13">SUM(C19,-C17)</f>
         <v>73</v>
       </c>
-      <c r="E19" s="2">
-        <v>2.4300000000000002</v>
+      <c r="E19" s="12">
+        <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="12"/>
-        <v>177.39000000000001</v>
+        <v>186.14999999999998</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="10" t="s">
+      <c r="A20" s="7">
+        <v>44105</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12">
+        <v>101485</v>
+      </c>
+      <c r="D20" s="2">
+        <v>256</v>
+      </c>
+      <c r="E20" s="13">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" ref="F20:F21" si="14">D20*E20</f>
+        <v>1205.76</v>
+      </c>
+      <c r="G20" s="11">
+        <f>SUM(F20,F21)</f>
+        <v>1583.1599999999999</v>
+      </c>
+      <c r="H20" s="11">
+        <v>1528.52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="12">
+        <v>61235</v>
+      </c>
+      <c r="D21" s="2">
+        <v>148</v>
+      </c>
+      <c r="E21" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="14"/>
+        <v>377.4</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>44111</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="12">
+        <v>101851</v>
+      </c>
+      <c r="D22" s="2">
+        <f>SUM(C22,-C20)</f>
+        <v>366</v>
+      </c>
+      <c r="E22" s="13">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" ref="F22:F23" si="15">D22*E22</f>
+        <v>1723.86</v>
+      </c>
+      <c r="G22" s="11">
+        <f>SUM(F22,F23)</f>
+        <v>2366.46</v>
+      </c>
+      <c r="H22" s="11">
+        <v>2255.6999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="12">
+        <v>61487</v>
+      </c>
+      <c r="D23" s="2">
+        <f>SUM(C23,-C21)</f>
+        <v>252</v>
+      </c>
+      <c r="E23" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="15"/>
+        <v>642.59999999999991</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="11">
-        <f>SUM(G2:G17)</f>
-        <v>53756.01</v>
-      </c>
-      <c r="H20" s="11">
-        <f>SUM(H2:H17)</f>
-        <v>53755.71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="10" t="s">
+      <c r="G24" s="11">
+        <f>SUM(G2:G23)</f>
+        <v>59078.700000000004</v>
+      </c>
+      <c r="H24" s="11">
+        <f>SUM(H2:H23)</f>
+        <v>58848.799999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11">
-        <f>SUM(H20,-G20)</f>
-        <v>-0.30000000000291038</v>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11">
+        <f>SUM(H24,-G24)</f>
+        <v>-229.90000000000873</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/54ee.xlsx
+++ b/sputnik/personal/ee/54ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -98,12 +98,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -133,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -168,6 +174,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -475,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E23"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -521,571 +528,316 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>43810</v>
+        <v>43999</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>92600</v>
+        <v>100840</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="6"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="10"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>56320</v>
+        <v>60960</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="10"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>43835</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>44018</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2">
-        <v>93940</v>
+      <c r="C4" s="9">
+        <v>101717</v>
       </c>
       <c r="D4" s="2">
-        <f>SUM(C4,-C2)</f>
-        <v>1340</v>
+        <f t="shared" ref="D4" si="0">SUM(C4,-C2)</f>
+        <v>877</v>
       </c>
       <c r="E4" s="6">
         <v>4.49</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" ref="F4:F7" si="0">D4*E4</f>
-        <v>6016.6</v>
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>3937.73</v>
       </c>
       <c r="G4" s="11">
         <f>SUM(F4,F5)</f>
-        <v>7741.9000000000005</v>
+        <v>5483.21</v>
       </c>
       <c r="H4" s="11">
-        <v>7741.9</v>
+        <v>5483.21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
-        <v>57030</v>
+      <c r="C5" s="9">
+        <v>61596</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D7" si="1">SUM(C5,-C3)</f>
-        <v>710</v>
+        <f t="shared" ref="D5" si="2">SUM(C5,-C3)</f>
+        <v>636</v>
       </c>
       <c r="E5" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="0"/>
-        <v>1725.3000000000002</v>
+        <f t="shared" si="1"/>
+        <v>1545.48</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>43868</v>
+      <c r="A6" s="7">
+        <v>44049</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2">
-        <v>95700</v>
+      <c r="C6" s="12">
+        <v>101969</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="1"/>
-        <v>1760</v>
-      </c>
-      <c r="E6" s="6">
-        <v>4.49</v>
+        <f>SUM(C6,-C4)</f>
+        <v>252</v>
+      </c>
+      <c r="E6" s="13">
+        <v>4.71</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="0"/>
-        <v>7902.4000000000005</v>
-      </c>
-      <c r="G6" s="11">
+        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
+        <v>1186.92</v>
+      </c>
+      <c r="G6" s="14">
         <f>SUM(F6,F7)</f>
-        <v>10016.5</v>
-      </c>
-      <c r="H6" s="11">
-        <v>10016.200000000001</v>
+        <v>1373.0700000000002</v>
+      </c>
+      <c r="H6" s="14">
+        <v>1308.8699999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
-        <v>57900</v>
+      <c r="C7" s="12">
+        <v>61669</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="1"/>
-        <v>870</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2.4300000000000002</v>
+        <f t="shared" ref="D7" si="4">SUM(C7,-C5)</f>
+        <v>73</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="0"/>
-        <v>2114.1000000000004</v>
+        <f t="shared" si="3"/>
+        <v>186.14999999999998</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>43901</v>
+      <c r="A8" s="7">
+        <v>44105</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="2">
-        <v>97100</v>
+      <c r="C8" s="12">
+        <v>101485</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8:D9" si="2">SUM(C8,-C6)</f>
-        <v>1400</v>
-      </c>
-      <c r="E8" s="6">
-        <v>4.49</v>
+        <v>256</v>
+      </c>
+      <c r="E8" s="13">
+        <v>4.71</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" ref="F8:F9" si="3">D8*E8</f>
-        <v>6286</v>
-      </c>
-      <c r="G8" s="11">
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <v>1205.76</v>
+      </c>
+      <c r="G8" s="14">
         <f>SUM(F8,F9)</f>
-        <v>8108.5</v>
-      </c>
-      <c r="H8" s="11">
-        <v>8108.5</v>
+        <v>1583.1599999999999</v>
+      </c>
+      <c r="H8" s="14">
+        <v>1528.52</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="2">
-        <v>58650</v>
+      <c r="C9" s="12">
+        <v>61235</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="2"/>
-        <v>750</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2.4300000000000002</v>
+        <v>148</v>
+      </c>
+      <c r="E9" s="12">
+        <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="3"/>
-        <v>1822.5000000000002</v>
+        <f t="shared" si="5"/>
+        <v>377.4</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>43934</v>
+      <c r="A10" s="7">
+        <v>44111</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="2">
-        <v>98850</v>
+      <c r="C10" s="12">
+        <v>101851</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" ref="D10:D12" si="4">SUM(C10,-C8)</f>
-        <v>1750</v>
-      </c>
-      <c r="E10" s="6">
-        <v>4.49</v>
+        <f>SUM(C10,-C8)</f>
+        <v>366</v>
+      </c>
+      <c r="E10" s="13">
+        <v>4.71</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" ref="F10:F11" si="5">D10*E10</f>
-        <v>7857.5</v>
-      </c>
-      <c r="G10" s="11">
+        <f t="shared" ref="F10:F11" si="6">D10*E10</f>
+        <v>1723.86</v>
+      </c>
+      <c r="G10" s="14">
         <f>SUM(F10,F11)</f>
-        <v>10166</v>
-      </c>
-      <c r="H10" s="11">
-        <v>10166</v>
+        <v>2366.46</v>
+      </c>
+      <c r="H10" s="14">
+        <v>2255.6999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+      <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="2">
-        <v>59600</v>
+      <c r="C11" s="12">
+        <v>61487</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="4"/>
-        <v>950</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2.4300000000000002</v>
+        <f>SUM(C11,-C9)</f>
+        <v>252</v>
+      </c>
+      <c r="E11" s="12">
+        <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="5"/>
-        <v>2308.5</v>
+        <f t="shared" si="6"/>
+        <v>642.59999999999991</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>43964</v>
+      <c r="A12" s="7">
+        <v>44151</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="2">
-        <v>100100</v>
+      <c r="C12" s="12">
+        <v>102612</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="4"/>
-        <v>1250</v>
-      </c>
-      <c r="E12" s="6">
-        <v>4.49</v>
+        <f>SUM(C12,-C10)</f>
+        <v>761</v>
+      </c>
+      <c r="E12" s="13">
+        <v>4.71</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" ref="F12:F13" si="6">D12*E12</f>
-        <v>5612.5</v>
-      </c>
-      <c r="G12" s="11">
+        <f t="shared" ref="F12:F13" si="7">D12*E12</f>
+        <v>3584.31</v>
+      </c>
+      <c r="G12" s="14">
         <f>SUM(F12,F13)</f>
-        <v>7483.6</v>
-      </c>
-      <c r="H12" s="11">
-        <v>7483.6</v>
+        <v>4683.3599999999997</v>
+      </c>
+      <c r="H12" s="14">
+        <v>4683.3599999999997</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2">
-        <v>60370</v>
+      <c r="C13" s="12">
+        <v>61918</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ref="D13:D14" si="7">SUM(C13,-C11)</f>
-        <v>770</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2.4300000000000002</v>
+        <f>SUM(C13,-C11)</f>
+        <v>431</v>
+      </c>
+      <c r="E13" s="12">
+        <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="6"/>
-        <v>1871.1000000000001</v>
+        <f t="shared" si="7"/>
+        <v>1099.05</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>43999</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>100840</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="7"/>
-        <v>740</v>
-      </c>
-      <c r="E14" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="4">
-        <f t="shared" ref="F14:F15" si="8">D14*E14</f>
-        <v>3322.6000000000004</v>
+      <c r="F14" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="11">
-        <f>SUM(F14,F15)</f>
-        <v>4756.3</v>
+        <f>SUM(G2:G11)</f>
+        <v>10805.900000000001</v>
       </c>
       <c r="H14" s="11">
-        <v>4756.3</v>
+        <f>SUM(H2:H11)</f>
+        <v>10576.3</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>60960</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" ref="D15:D16" si="9">SUM(C15,-C13)</f>
-        <v>590</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="4">
-        <f t="shared" si="8"/>
-        <v>1433.7</v>
+      <c r="F15" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>44018</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="9">
-        <v>101717</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="9"/>
-        <v>877</v>
-      </c>
-      <c r="E16" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F16" s="4">
-        <f t="shared" ref="F16:F17" si="10">D16*E16</f>
-        <v>3937.73</v>
-      </c>
-      <c r="G16" s="11">
-        <f>SUM(F16,F17)</f>
-        <v>5483.21</v>
-      </c>
-      <c r="H16" s="11">
-        <v>5483.21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="9">
-        <v>61596</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" ref="D17" si="11">SUM(C17,-C15)</f>
-        <v>636</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F17" s="4">
-        <f t="shared" si="10"/>
-        <v>1545.48</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>44049</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="12">
-        <v>101969</v>
-      </c>
-      <c r="D18" s="2">
-        <f>SUM(C18,-C16)</f>
-        <v>252</v>
-      </c>
-      <c r="E18" s="13">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" ref="F18:F19" si="12">D18*E18</f>
-        <v>1186.92</v>
-      </c>
-      <c r="G18" s="11">
-        <f>SUM(F18,F19)</f>
-        <v>1373.0700000000002</v>
-      </c>
-      <c r="H18" s="11">
-        <v>1308.8699999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="12">
-        <v>61669</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" ref="D19" si="13">SUM(C19,-C17)</f>
-        <v>73</v>
-      </c>
-      <c r="E19" s="12">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="4">
-        <f t="shared" si="12"/>
-        <v>186.14999999999998</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>44105</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="12">
-        <v>101485</v>
-      </c>
-      <c r="D20" s="2">
-        <v>256</v>
-      </c>
-      <c r="E20" s="13">
-        <v>4.71</v>
-      </c>
-      <c r="F20" s="4">
-        <f t="shared" ref="F20:F21" si="14">D20*E20</f>
-        <v>1205.76</v>
-      </c>
-      <c r="G20" s="11">
-        <f>SUM(F20,F21)</f>
-        <v>1583.1599999999999</v>
-      </c>
-      <c r="H20" s="11">
-        <v>1528.52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="12">
-        <v>61235</v>
-      </c>
-      <c r="D21" s="2">
-        <v>148</v>
-      </c>
-      <c r="E21" s="12">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F21" s="4">
-        <f t="shared" si="14"/>
-        <v>377.4</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>44111</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="12">
-        <v>101851</v>
-      </c>
-      <c r="D22" s="2">
-        <f>SUM(C22,-C20)</f>
-        <v>366</v>
-      </c>
-      <c r="E22" s="13">
-        <v>4.71</v>
-      </c>
-      <c r="F22" s="4">
-        <f t="shared" ref="F22:F23" si="15">D22*E22</f>
-        <v>1723.86</v>
-      </c>
-      <c r="G22" s="11">
-        <f>SUM(F22,F23)</f>
-        <v>2366.46</v>
-      </c>
-      <c r="H22" s="11">
-        <v>2255.6999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="12">
-        <v>61487</v>
-      </c>
-      <c r="D23" s="2">
-        <f>SUM(C23,-C21)</f>
-        <v>252</v>
-      </c>
-      <c r="E23" s="12">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F23" s="4">
-        <f t="shared" si="15"/>
-        <v>642.59999999999991</v>
-      </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="11">
-        <f>SUM(G2:G23)</f>
-        <v>59078.700000000004</v>
-      </c>
-      <c r="H24" s="11">
-        <f>SUM(H2:H23)</f>
-        <v>58848.799999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11">
-        <f>SUM(H24,-G24)</f>
-        <v>-229.90000000000873</v>
+      <c r="H15" s="11">
+        <f>SUM(H14,-G14)</f>
+        <v>-229.60000000000218</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/54ee.xlsx
+++ b/sputnik/personal/ee/54ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -139,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -175,6 +175,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -482,10 +491,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -812,26 +821,101 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="10" t="s">
+      <c r="A14" s="7">
+        <v>44189</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="12">
+        <v>104381</v>
+      </c>
+      <c r="D14" s="2">
+        <f>SUM(C14,-C12)</f>
+        <v>1769</v>
+      </c>
+      <c r="E14" s="13">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" ref="F14:F15" si="8">D14*E14</f>
+        <v>8331.99</v>
+      </c>
+      <c r="G14" s="14">
+        <f>SUM(F14,F15)</f>
+        <v>10619.34</v>
+      </c>
+      <c r="H14" s="14">
+        <v>10619.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="12">
+        <v>62815</v>
+      </c>
+      <c r="D15" s="2">
+        <f>SUM(C15,-C13)</f>
+        <v>897</v>
+      </c>
+      <c r="E15" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="8"/>
+        <v>2287.35</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>44189</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11">
+        <v>229.6</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="11">
-        <f>SUM(G2:G11)</f>
-        <v>10805.900000000001</v>
-      </c>
-      <c r="H14" s="11">
-        <f>SUM(H2:H11)</f>
-        <v>10576.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="10" t="s">
+      <c r="G17" s="11">
+        <f>SUM(G2:G16)</f>
+        <v>26108.600000000002</v>
+      </c>
+      <c r="H17" s="11">
+        <f>SUM(H2:H16)</f>
+        <v>26108.62</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
-        <f>SUM(H14,-G14)</f>
-        <v>-229.60000000000218</v>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11">
+        <f>SUM(H17,-G17)</f>
+        <v>1.9999999996798579E-2</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/54ee.xlsx
+++ b/sputnik/personal/ee/54ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -112,7 +112,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -135,11 +135,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -175,15 +188,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -491,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -729,14 +734,14 @@
         <v>101851</v>
       </c>
       <c r="D10" s="2">
-        <f>SUM(C10,-C8)</f>
+        <f t="shared" ref="D10:D17" si="6">SUM(C10,-C8)</f>
         <v>366</v>
       </c>
       <c r="E10" s="13">
         <v>4.71</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" ref="F10:F11" si="6">D10*E10</f>
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
         <v>1723.86</v>
       </c>
       <c r="G10" s="14">
@@ -756,14 +761,14 @@
         <v>61487</v>
       </c>
       <c r="D11" s="2">
-        <f>SUM(C11,-C9)</f>
+        <f t="shared" si="6"/>
         <v>252</v>
       </c>
       <c r="E11" s="12">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>642.59999999999991</v>
       </c>
       <c r="G11" s="11"/>
@@ -780,14 +785,14 @@
         <v>102612</v>
       </c>
       <c r="D12" s="2">
-        <f>SUM(C12,-C10)</f>
+        <f t="shared" si="6"/>
         <v>761</v>
       </c>
       <c r="E12" s="13">
         <v>4.71</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" ref="F12:F13" si="7">D12*E12</f>
+        <f t="shared" ref="F12:F13" si="8">D12*E12</f>
         <v>3584.31</v>
       </c>
       <c r="G12" s="14">
@@ -807,14 +812,14 @@
         <v>61918</v>
       </c>
       <c r="D13" s="2">
-        <f>SUM(C13,-C11)</f>
+        <f t="shared" si="6"/>
         <v>431</v>
       </c>
       <c r="E13" s="12">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1099.05</v>
       </c>
       <c r="G13" s="11"/>
@@ -831,14 +836,14 @@
         <v>104381</v>
       </c>
       <c r="D14" s="2">
-        <f>SUM(C14,-C12)</f>
+        <f t="shared" si="6"/>
         <v>1769</v>
       </c>
       <c r="E14" s="13">
         <v>4.71</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" ref="F14:F15" si="8">D14*E14</f>
+        <f t="shared" ref="F14:F15" si="9">D14*E14</f>
         <v>8331.99</v>
       </c>
       <c r="G14" s="14">
@@ -858,64 +863,91 @@
         <v>62815</v>
       </c>
       <c r="D15" s="2">
-        <f>SUM(C15,-C13)</f>
+        <f t="shared" si="6"/>
         <v>897</v>
       </c>
       <c r="E15" s="12">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2287.35</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
-        <v>44189</v>
+      <c r="A16" s="7">
+        <v>44211</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="16">
-        <v>0</v>
-      </c>
-      <c r="D16" s="15">
-        <v>0</v>
-      </c>
-      <c r="E16" s="16">
-        <v>0</v>
+      <c r="C16" s="12">
+        <v>106457</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="6"/>
+        <v>2076</v>
+      </c>
+      <c r="E16" s="13">
+        <v>4.71</v>
       </c>
       <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11">
-        <v>229.6</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="10" t="s">
+        <f t="shared" ref="F16:F17" si="10">D16*E16</f>
+        <v>9777.9599999999991</v>
+      </c>
+      <c r="G16" s="14">
+        <f>SUM(F16,F17)</f>
+        <v>12544.71</v>
+      </c>
+      <c r="H16" s="14">
+        <v>12544.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12">
+        <v>63900</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="6"/>
+        <v>1085</v>
+      </c>
+      <c r="E17" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="10"/>
+        <v>2766.75</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="11">
-        <f>SUM(G2:G16)</f>
-        <v>26108.600000000002</v>
-      </c>
-      <c r="H17" s="11">
-        <f>SUM(H2:H16)</f>
-        <v>26108.62</v>
-      </c>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="10" t="s">
+      <c r="G18" s="11">
+        <f>SUM(G2:G17)</f>
+        <v>38653.31</v>
+      </c>
+      <c r="H18" s="11">
+        <f>SUM(H2:H17)</f>
+        <v>38423.770000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11">
-        <f>SUM(H17,-G17)</f>
-        <v>1.9999999996798579E-2</v>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11">
+        <f>SUM(H18,-G18)</f>
+        <v>-229.5399999999936</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/54ee.xlsx
+++ b/sputnik/personal/ee/54ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -98,7 +98,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,6 +108,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -152,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -189,6 +195,7 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -496,10 +503,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -928,26 +935,179 @@
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="15" t="s">
+      <c r="A18" s="7">
+        <v>44235</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="12">
+        <v>108133</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:D19" si="11">SUM(C18,-C16)</f>
+        <v>1676</v>
+      </c>
+      <c r="E18" s="13">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" ref="F18:F19" si="12">D18*E18</f>
+        <v>7893.96</v>
+      </c>
+      <c r="G18" s="14">
+        <f>SUM(F18,F19)</f>
+        <v>10148.16</v>
+      </c>
+      <c r="H18" s="14">
+        <v>10184.16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12">
+        <v>64784</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="11"/>
+        <v>884</v>
+      </c>
+      <c r="E19" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="12"/>
+        <v>2254.1999999999998</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>44230</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12">
+        <v>110100</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20:D21" si="13">SUM(C20,-C18)</f>
+        <v>1967</v>
+      </c>
+      <c r="E20" s="13">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" ref="F20:F21" si="14">D20*E20</f>
+        <v>9264.57</v>
+      </c>
+      <c r="G20" s="16">
+        <f>SUM(F20,F21)</f>
+        <v>11822.22</v>
+      </c>
+      <c r="H20" s="16">
+        <v>11822.22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="12">
+        <v>65787</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="13"/>
+        <v>1003</v>
+      </c>
+      <c r="E21" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="14"/>
+        <v>2557.6499999999996</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>44291</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="12">
+        <v>111827</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22:D23" si="15">SUM(C22,-C20)</f>
+        <v>1727</v>
+      </c>
+      <c r="E22" s="13">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" ref="F22:F23" si="16">D22*E22</f>
+        <v>8134.17</v>
+      </c>
+      <c r="G22" s="16">
+        <f>SUM(F22,F23)</f>
+        <v>10587.27</v>
+      </c>
+      <c r="H22" s="16">
+        <v>10587.27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="12">
+        <v>66749</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="15"/>
+        <v>962</v>
+      </c>
+      <c r="E23" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="16"/>
+        <v>2453.1</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="11">
-        <f>SUM(G2:G17)</f>
-        <v>38653.31</v>
-      </c>
-      <c r="H18" s="11">
-        <f>SUM(H2:H17)</f>
-        <v>38423.770000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="10" t="s">
+      <c r="G24" s="11">
+        <f>SUM(G2:G23)</f>
+        <v>71210.960000000006</v>
+      </c>
+      <c r="H24" s="11">
+        <f>SUM(H2:H23)</f>
+        <v>71017.420000000013</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11">
-        <f>SUM(H18,-G18)</f>
-        <v>-229.5399999999936</v>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11">
+        <f>SUM(H24,-G24)</f>
+        <v>-193.5399999999936</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/54ee.xlsx
+++ b/sputnik/personal/ee/54ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -503,10 +503,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1088,25 +1088,76 @@
       <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="15" t="s">
+      <c r="A24" s="7">
+        <v>44330</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="12">
+        <v>113273</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" ref="D24:D25" si="17">SUM(C24,-C22)</f>
+        <v>1446</v>
+      </c>
+      <c r="E24" s="13">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" ref="F24:F25" si="18">D24*E24</f>
+        <v>6810.66</v>
+      </c>
+      <c r="G24" s="16">
+        <f>SUM(F24,F25)</f>
+        <v>9041.91</v>
+      </c>
+      <c r="H24" s="16">
+        <v>9041.91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="12">
+        <v>67624</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="17"/>
+        <v>875</v>
+      </c>
+      <c r="E25" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="18"/>
+        <v>2231.25</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G26" s="11">
         <f>SUM(G2:G23)</f>
         <v>71210.960000000006</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H26" s="11">
         <f>SUM(H2:H23)</f>
         <v>71017.420000000013</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="10" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11">
-        <f>SUM(H24,-G24)</f>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11">
+        <f>SUM(H26,-G26)</f>
         <v>-193.5399999999936</v>
       </c>
     </row>

--- a/sputnik/personal/ee/54ee.xlsx
+++ b/sputnik/personal/ee/54ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -503,10 +503,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1139,25 +1139,76 @@
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="15" t="s">
+      <c r="A26" s="7">
+        <v>44358</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="12">
+        <v>113517</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" ref="D26:D27" si="19">SUM(C26,-C24)</f>
+        <v>244</v>
+      </c>
+      <c r="E26" s="13">
+        <v>4.71</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" ref="F26:F27" si="20">D26*E26</f>
+        <v>1149.24</v>
+      </c>
+      <c r="G26" s="16">
+        <f>SUM(F26,F27)</f>
+        <v>1503.69</v>
+      </c>
+      <c r="H26" s="16">
+        <v>1503.69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="12">
+        <v>67763</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="19"/>
+        <v>139</v>
+      </c>
+      <c r="E27" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="20"/>
+        <v>354.45</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G28" s="11">
         <f>SUM(G2:G23)</f>
         <v>71210.960000000006</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H28" s="11">
         <f>SUM(H2:H23)</f>
         <v>71017.420000000013</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="10" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11">
-        <f>SUM(H26,-G26)</f>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11">
+        <f>SUM(H28,-G28)</f>
         <v>-193.5399999999936</v>
       </c>
     </row>

--- a/sputnik/personal/ee/54ee.xlsx
+++ b/sputnik/personal/ee/54ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -503,10 +503,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1190,25 +1190,76 @@
       <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="15" t="s">
+      <c r="A28" s="7">
+        <v>44382</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="12">
+        <v>113655</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" ref="D28:D29" si="21">SUM(C28,-C26)</f>
+        <v>138</v>
+      </c>
+      <c r="E28" s="13">
+        <v>4.71</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" ref="F28:F29" si="22">D28*E28</f>
+        <v>649.98</v>
+      </c>
+      <c r="G28" s="16">
+        <f>SUM(F28,F29)</f>
+        <v>749.43000000000006</v>
+      </c>
+      <c r="H28" s="16">
+        <v>749.43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="12">
+        <v>67802</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="21"/>
+        <v>39</v>
+      </c>
+      <c r="E29" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="22"/>
+        <v>99.449999999999989</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G30" s="11">
         <f>SUM(G2:G23)</f>
         <v>71210.960000000006</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H30" s="11">
         <f>SUM(H2:H23)</f>
         <v>71017.420000000013</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="10" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11">
-        <f>SUM(H28,-G28)</f>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11">
+        <f>SUM(H30,-G30)</f>
         <v>-193.5399999999936</v>
       </c>
     </row>

--- a/sputnik/personal/ee/54ee.xlsx
+++ b/sputnik/personal/ee/54ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -503,10 +503,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1241,26 +1241,128 @@
       <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="15" t="s">
+      <c r="A30" s="7">
+        <v>44420</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="12">
+        <v>113862</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" ref="D30:D31" si="23">SUM(C30,-C28)</f>
+        <v>207</v>
+      </c>
+      <c r="E30" s="13">
+        <v>4.96</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" ref="F30:F31" si="24">D30*E30</f>
+        <v>1026.72</v>
+      </c>
+      <c r="G30" s="16">
+        <f>SUM(F30,F31)</f>
+        <v>1163.4000000000001</v>
+      </c>
+      <c r="H30" s="16">
+        <v>1163.4000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="12">
+        <v>67853</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="23"/>
+        <v>51</v>
+      </c>
+      <c r="E31" s="12">
+        <v>2.68</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="24"/>
+        <v>136.68</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>44446</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="12">
+        <v>114257</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" ref="D32:D33" si="25">SUM(C32,-C30)</f>
+        <v>395</v>
+      </c>
+      <c r="E32" s="13">
+        <v>4.96</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" ref="F32:F33" si="26">D32*E32</f>
+        <v>1959.2</v>
+      </c>
+      <c r="G32" s="16">
+        <f>SUM(F32,F33)</f>
+        <v>2591.6800000000003</v>
+      </c>
+      <c r="H32" s="16">
+        <v>2591.6799999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="12">
+        <v>68089</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="25"/>
+        <v>236</v>
+      </c>
+      <c r="E33" s="12">
+        <v>2.68</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" si="26"/>
+        <v>632.48</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F34" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="11">
-        <f>SUM(G2:G23)</f>
-        <v>71210.960000000006</v>
-      </c>
-      <c r="H30" s="11">
-        <f>SUM(H2:H23)</f>
-        <v>71017.420000000013</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="10" t="s">
+      <c r="G34" s="11">
+        <f>SUM(G2:G33)</f>
+        <v>86261.07</v>
+      </c>
+      <c r="H34" s="11">
+        <f>SUM(H2:H33)</f>
+        <v>86067.53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F35" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11">
-        <f>SUM(H30,-G30)</f>
-        <v>-193.5399999999936</v>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11">
+        <f>SUM(H34,-G34)</f>
+        <v>-193.54000000000815</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/54ee.xlsx
+++ b/sputnik/personal/ee/54ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -86,7 +86,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -152,12 +151,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -167,23 +163,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -493,10 +489,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -514,235 +510,337 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="9">
+        <v>44538</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>118145</v>
+      </c>
+      <c r="D2" s="10">
+        <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
+        <v>2087</v>
+      </c>
+      <c r="E2" s="11">
+        <v>4.96</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
+        <v>10351.52</v>
+      </c>
+      <c r="G2" s="8">
+        <f>SUM(F2,F3)</f>
+        <v>13221.800000000001</v>
+      </c>
+      <c r="H2" s="8">
+        <v>13191.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>70213</v>
+      </c>
+      <c r="D3" s="10">
+        <f t="shared" si="0"/>
+        <v>1071</v>
+      </c>
+      <c r="E3" s="10">
+        <v>2.68</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" si="1"/>
+        <v>2870.28</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>44503</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>116058</v>
+      </c>
+      <c r="D4" s="10">
+        <f t="shared" ref="D4:D11" si="2">SUM(C4,-C6)</f>
+        <v>859</v>
+      </c>
+      <c r="E4" s="11">
+        <v>4.96</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
+        <v>4260.6400000000003</v>
+      </c>
+      <c r="G4" s="8">
+        <f>SUM(F4,F5)</f>
+        <v>5589.92</v>
+      </c>
+      <c r="H4" s="8">
+        <v>5589.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>69142</v>
+      </c>
+      <c r="D5" s="10">
+        <f t="shared" si="2"/>
+        <v>496</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2.68</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="3"/>
+        <v>1329.28</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>44481</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C6" s="10">
         <v>115199</v>
       </c>
-      <c r="D2" s="2">
-        <f>SUM(C2,-C4)</f>
+      <c r="D6" s="10">
+        <f t="shared" si="2"/>
         <v>942</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E6" s="11">
         <v>4.96</v>
       </c>
-      <c r="F2" s="4">
-        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+      <c r="F6" s="3">
+        <f t="shared" ref="F6:F7" si="4">D6*E6</f>
         <v>4672.32</v>
       </c>
-      <c r="G2" s="12">
-        <f>SUM(F2,F3)</f>
+      <c r="G6" s="8">
+        <f>SUM(F6,F7)</f>
         <v>6165.08</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H6" s="8">
         <v>6165.08</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C7" s="10">
         <v>68646</v>
       </c>
-      <c r="D3" s="2">
-        <f>SUM(C3,-C5)</f>
+      <c r="D7" s="10">
+        <f t="shared" si="2"/>
         <v>557</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E7" s="10">
         <v>2.68</v>
       </c>
-      <c r="F3" s="4">
-        <f t="shared" si="0"/>
+      <c r="F7" s="3">
+        <f t="shared" si="4"/>
         <v>1492.76</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
         <v>44446</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C8" s="10">
         <v>114257</v>
       </c>
-      <c r="D4" s="2">
-        <f>SUM(C4,-C6)</f>
+      <c r="D8" s="10">
+        <f t="shared" si="2"/>
         <v>395</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E8" s="11">
         <v>4.96</v>
       </c>
-      <c r="F4" s="4">
-        <f t="shared" ref="F4:F7" si="1">D4*E4</f>
+      <c r="F8" s="3">
+        <f t="shared" ref="F8:F11" si="5">D8*E8</f>
         <v>1959.2</v>
       </c>
-      <c r="G4" s="12">
-        <f>SUM(F4,F5)</f>
+      <c r="G8" s="8">
+        <f>SUM(F8,F9)</f>
         <v>2591.6800000000003</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H8" s="8">
         <v>2591.6799999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C9" s="10">
         <v>68089</v>
       </c>
-      <c r="D5" s="2">
-        <f>SUM(C5,-C7)</f>
+      <c r="D9" s="10">
+        <f t="shared" si="2"/>
         <v>236</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E9" s="10">
         <v>2.68</v>
       </c>
-      <c r="F5" s="4">
-        <f t="shared" si="1"/>
+      <c r="F9" s="3">
+        <f t="shared" si="5"/>
         <v>632.48</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>44420</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B10" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C10" s="10">
         <v>113862</v>
       </c>
-      <c r="D6" s="2">
-        <f>SUM(C6,-C8)</f>
+      <c r="D10" s="10">
+        <f t="shared" si="2"/>
         <v>207</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E10" s="11">
         <v>4.96</v>
       </c>
-      <c r="F6" s="4">
-        <f t="shared" si="1"/>
+      <c r="F10" s="3">
+        <f t="shared" si="5"/>
         <v>1026.72</v>
       </c>
-      <c r="G6" s="12">
-        <f>SUM(F6,F7)</f>
+      <c r="G10" s="8">
+        <f>SUM(F10,F11)</f>
         <v>1163.4000000000001</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H10" s="8">
         <v>1163.4000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C11" s="10">
         <v>67853</v>
       </c>
-      <c r="D7" s="2">
-        <f>SUM(C7,-C9)</f>
+      <c r="D11" s="10">
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E11" s="10">
         <v>2.68</v>
       </c>
-      <c r="F7" s="4">
-        <f t="shared" si="1"/>
+      <c r="F11" s="3">
+        <f t="shared" si="5"/>
         <v>136.68</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
         <v>44382</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B12" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C12" s="10">
         <v>113655</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C13" s="10">
         <v>67802</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="11" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="8">
-        <f>SUM(G4:G5)</f>
-        <v>2591.6800000000003</v>
-      </c>
-      <c r="H10" s="8">
-        <f>SUM(H4:H5)</f>
-        <v>2591.6799999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="7" t="s">
+      <c r="G14" s="6">
+        <f>SUM(G2:G13)</f>
+        <v>28731.880000000005</v>
+      </c>
+      <c r="H14" s="6">
+        <f>SUM(H2:H13)</f>
+        <v>28701.880000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8">
-        <f>SUM(H10,-G10)</f>
-        <v>-4.5474735088646412E-13</v>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6">
+        <f>SUM(H14,-G14)</f>
+        <v>-30</v>
       </c>
     </row>
   </sheetData>
